--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H2">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I2">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J2">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>27912.25901532738</v>
+        <v>172.228967652366</v>
       </c>
       <c r="R2">
-        <v>27912.25901532738</v>
+        <v>1550.060708871294</v>
       </c>
       <c r="S2">
-        <v>0.2722920429677722</v>
+        <v>0.001605306637657813</v>
       </c>
       <c r="T2">
-        <v>0.2722920429677722</v>
+        <v>0.001605306637657812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H3">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I3">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J3">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>26780.39197622932</v>
+        <v>149.473196495328</v>
       </c>
       <c r="R3">
-        <v>26780.39197622932</v>
+        <v>1345.258768457952</v>
       </c>
       <c r="S3">
-        <v>0.2612503573673822</v>
+        <v>0.001393205322871156</v>
       </c>
       <c r="T3">
-        <v>0.2612503573673822</v>
+        <v>0.001393205322871156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H4">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I4">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J4">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>37040.27114168342</v>
+        <v>208.989864021792</v>
       </c>
       <c r="R4">
-        <v>37040.27114168342</v>
+        <v>1880.908776196128</v>
       </c>
       <c r="S4">
-        <v>0.3613384031622386</v>
+        <v>0.001947946506853358</v>
       </c>
       <c r="T4">
-        <v>0.3613384031622386</v>
+        <v>0.001947946506853358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.9959606472072</v>
+        <v>264.7713316666666</v>
       </c>
       <c r="H5">
-        <v>30.9959606472072</v>
+        <v>794.313995</v>
       </c>
       <c r="I5">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348598</v>
       </c>
       <c r="J5">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348596</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>3278.776602198519</v>
+        <v>30990.04480985306</v>
       </c>
       <c r="R5">
-        <v>3278.776602198519</v>
+        <v>278910.4032886776</v>
       </c>
       <c r="S5">
-        <v>0.03198540035606981</v>
+        <v>0.2888510876694367</v>
       </c>
       <c r="T5">
-        <v>0.03198540035606981</v>
+        <v>0.2888510876694367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.9959606472072</v>
+        <v>264.7713316666666</v>
       </c>
       <c r="H6">
-        <v>30.9959606472072</v>
+        <v>794.313995</v>
       </c>
       <c r="I6">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348598</v>
       </c>
       <c r="J6">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348596</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>3145.819281812642</v>
+        <v>26895.48175549638</v>
       </c>
       <c r="R6">
-        <v>3145.819281812642</v>
+        <v>242059.3357994674</v>
       </c>
       <c r="S6">
-        <v>0.03068836379677482</v>
+        <v>0.2506866061709789</v>
       </c>
       <c r="T6">
-        <v>0.03068836379677482</v>
+        <v>0.2506866061709788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>264.7713316666666</v>
+      </c>
+      <c r="H7">
+        <v>794.313995</v>
+      </c>
+      <c r="I7">
+        <v>0.8900417371348598</v>
+      </c>
+      <c r="J7">
+        <v>0.8900417371348596</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>142.0267893333333</v>
+      </c>
+      <c r="N7">
+        <v>426.080368</v>
+      </c>
+      <c r="O7">
+        <v>0.3938062999413425</v>
+      </c>
+      <c r="P7">
+        <v>0.3938062999413425</v>
+      </c>
+      <c r="Q7">
+        <v>37604.6221441278</v>
+      </c>
+      <c r="R7">
+        <v>338441.5992971502</v>
+      </c>
+      <c r="S7">
+        <v>0.3505040432944441</v>
+      </c>
+      <c r="T7">
+        <v>0.3505040432944441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.239114</v>
+      </c>
+      <c r="H8">
+        <v>93.717342</v>
+      </c>
+      <c r="I8">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J8">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>117.044563</v>
+      </c>
+      <c r="N8">
+        <v>351.133689</v>
+      </c>
+      <c r="O8">
+        <v>0.3245365645427815</v>
+      </c>
+      <c r="P8">
+        <v>0.3245365645427815</v>
+      </c>
+      <c r="Q8">
+        <v>3656.368446637182</v>
+      </c>
+      <c r="R8">
+        <v>32907.31601973464</v>
+      </c>
+      <c r="S8">
+        <v>0.03408017023568695</v>
+      </c>
+      <c r="T8">
+        <v>0.03408017023568694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>30.9959606472072</v>
-      </c>
-      <c r="H7">
-        <v>30.9959606472072</v>
-      </c>
-      <c r="I7">
-        <v>0.105119196502607</v>
-      </c>
-      <c r="J7">
-        <v>0.105119196502607</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>140.373748387438</v>
-      </c>
-      <c r="N7">
-        <v>140.373748387438</v>
-      </c>
-      <c r="O7">
-        <v>0.403783835512001</v>
-      </c>
-      <c r="P7">
-        <v>0.403783835512001</v>
-      </c>
-      <c r="Q7">
-        <v>4351.019180917993</v>
-      </c>
-      <c r="R7">
-        <v>4351.019180917993</v>
-      </c>
-      <c r="S7">
-        <v>0.04244543234976237</v>
-      </c>
-      <c r="T7">
-        <v>0.04244543234976237</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.239114</v>
+      </c>
+      <c r="H9">
+        <v>93.717342</v>
+      </c>
+      <c r="I9">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J9">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>101.5800373333333</v>
+      </c>
+      <c r="N9">
+        <v>304.740112</v>
+      </c>
+      <c r="O9">
+        <v>0.281657135515876</v>
+      </c>
+      <c r="P9">
+        <v>0.281657135515876</v>
+      </c>
+      <c r="Q9">
+        <v>3173.270366380256</v>
+      </c>
+      <c r="R9">
+        <v>28559.43329742231</v>
+      </c>
+      <c r="S9">
+        <v>0.029577324022026</v>
+      </c>
+      <c r="T9">
+        <v>0.02957732402202599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>31.239114</v>
+      </c>
+      <c r="H10">
+        <v>93.717342</v>
+      </c>
+      <c r="I10">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J10">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>142.0267893333333</v>
+      </c>
+      <c r="N10">
+        <v>426.080368</v>
+      </c>
+      <c r="O10">
+        <v>0.3938062999413425</v>
+      </c>
+      <c r="P10">
+        <v>0.3938062999413425</v>
+      </c>
+      <c r="Q10">
+        <v>4436.791063037985</v>
+      </c>
+      <c r="R10">
+        <v>39931.11956734186</v>
+      </c>
+      <c r="S10">
+        <v>0.0413543101400451</v>
+      </c>
+      <c r="T10">
+        <v>0.04135431014004508</v>
       </c>
     </row>
   </sheetData>
